--- a/Mail/ChinaUnion_Agent/Template/ImportBonus_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportBonus_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_SourceCode\Mail\ChinaUnion_Agent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
